--- a/public/Reportes-Sukhavati-Yoga/assets/templates/Plantilla_Reporte_Detallado_Pagos.xlsx
+++ b/public/Reportes-Sukhavati-Yoga/assets/templates/Plantilla_Reporte_Detallado_Pagos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d354a26209d14364/Desktop/Sukhavati Yoga/Catalogos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\SukhavatiYoga\Reportes-Sukhavati-Yoga\public\Reportes-Sukhavati-Yoga\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_ABFF6ECFB32EFA42A48308AF90831DCE70A7DBBC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E323D23A-B691-4D22-8D24-83721459CC4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F52BA9-F386-4D6D-A707-1A8D85ACCF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3465" windowWidth="43200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -198,6 +198,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,10 +214,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,64 +536,37 @@
   <dimension ref="A1:AA2401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2399"/>
+      <selection activeCell="AA1" sqref="Z1:AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="216.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="16384" width="17" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -635,7 +605,7 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="22" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -650,10 +620,10 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="22" t="s">
         <v>26</v>
       </c>
     </row>
